--- a/replication/results/figureA1_any_evidence.xlsx
+++ b/replication/results/figureA1_any_evidence.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>year</t>
   </si>
@@ -34,55 +34,64 @@
     <t>total_dof</t>
   </si>
   <si>
+    <t>(0.63)</t>
+  </si>
+  <si>
+    <t>(0.41)</t>
+  </si>
+  <si>
+    <t>(0.51)</t>
+  </si>
+  <si>
+    <t>(0.34)</t>
+  </si>
+  <si>
+    <t>(0.69)</t>
+  </si>
+  <si>
+    <t>(0.46)</t>
+  </si>
+  <si>
+    <t>(0.6)</t>
+  </si>
+  <si>
+    <t>(0.43)</t>
+  </si>
+  <si>
+    <t>(0.72)</t>
+  </si>
+  <si>
+    <t>(0.47)</t>
+  </si>
+  <si>
+    <t>(0.86)</t>
+  </si>
+  <si>
     <t>(0.58)</t>
   </si>
   <si>
-    <t>(0.34)</t>
+    <t>(0.74)</t>
+  </si>
+  <si>
+    <t>(0.54)</t>
+  </si>
+  <si>
+    <t>(0.84)</t>
   </si>
   <si>
     <t>(0.59)</t>
   </si>
   <si>
-    <t>(0.4)</t>
-  </si>
-  <si>
-    <t>(0.72)</t>
-  </si>
-  <si>
-    <t>(0.45)</t>
-  </si>
-  <si>
-    <t>(0.7)</t>
-  </si>
-  <si>
-    <t>(0.47)</t>
-  </si>
-  <si>
     <t>(0.77)</t>
   </si>
   <si>
-    <t>(0.82)</t>
-  </si>
-  <si>
-    <t>(0.5)</t>
-  </si>
-  <si>
-    <t>(0.88)</t>
-  </si>
-  <si>
-    <t>(0.69)</t>
-  </si>
-  <si>
-    <t>(0.79)</t>
-  </si>
-  <si>
-    <t>(0.56)</t>
-  </si>
-  <si>
-    <t>(0.85)</t>
-  </si>
-  <si>
-    <t>(0.66)</t>
+    <t>(0.55)</t>
+  </si>
+  <si>
+    <t>(0.91)</t>
+  </si>
+  <si>
+    <t>(0.67)</t>
   </si>
 </sst>
 </file>
@@ -580,19 +589,19 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -653,22 +662,22 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
